--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pdpn-Clec1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Pdpn</t>
+  </si>
+  <si>
+    <t>Clec1b</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Pdpn</t>
-  </si>
-  <si>
-    <t>Clec1b</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.141780333333334</v>
+        <v>45.835794</v>
       </c>
       <c r="H2">
-        <v>6.425341</v>
+        <v>137.507382</v>
       </c>
       <c r="I2">
-        <v>0.02869229445178705</v>
+        <v>0.8389444232146973</v>
       </c>
       <c r="J2">
-        <v>0.02869229445178705</v>
+        <v>0.8389444232146973</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.82600633333333</v>
+        <v>1.075390666666667</v>
       </c>
       <c r="N2">
-        <v>38.478019</v>
+        <v>3.226172</v>
       </c>
       <c r="O2">
-        <v>0.8780027849272566</v>
+        <v>0.3593735692938006</v>
       </c>
       <c r="P2">
-        <v>0.8780027849272568</v>
+        <v>0.3593735692938007</v>
       </c>
       <c r="Q2">
-        <v>27.47048811994211</v>
+        <v>49.29138506685599</v>
       </c>
       <c r="R2">
-        <v>247.234393079479</v>
+        <v>443.6224656017041</v>
       </c>
       <c r="S2">
-        <v>0.0251919144346219</v>
+        <v>0.3014944518097946</v>
       </c>
       <c r="T2">
-        <v>0.02519191443462191</v>
+        <v>0.3014944518097947</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.141780333333334</v>
+        <v>45.835794</v>
       </c>
       <c r="H3">
-        <v>6.425341</v>
+        <v>137.507382</v>
       </c>
       <c r="I3">
-        <v>0.02869229445178705</v>
+        <v>0.8389444232146973</v>
       </c>
       <c r="J3">
-        <v>0.02869229445178705</v>
+        <v>0.8389444232146973</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.107299</v>
       </c>
       <c r="O3">
-        <v>0.1165398547533383</v>
+        <v>0.5689182942139039</v>
       </c>
       <c r="P3">
-        <v>0.1165398547533383</v>
+        <v>0.5689182942139039</v>
       </c>
       <c r="Q3">
-        <v>3.646237518217667</v>
+        <v>78.032368286802</v>
       </c>
       <c r="R3">
-        <v>32.816137663959</v>
+        <v>702.2913145812181</v>
       </c>
       <c r="S3">
-        <v>0.003343795827951278</v>
+        <v>0.4772908301955731</v>
       </c>
       <c r="T3">
-        <v>0.003343795827951278</v>
+        <v>0.4772908301955731</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.141780333333334</v>
+        <v>45.835794</v>
       </c>
       <c r="H4">
-        <v>6.425341</v>
+        <v>137.507382</v>
       </c>
       <c r="I4">
-        <v>0.02869229445178705</v>
+        <v>0.8389444232146973</v>
       </c>
       <c r="J4">
-        <v>0.02869229445178705</v>
+        <v>0.8389444232146973</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.079722</v>
+        <v>0.2145796666666667</v>
       </c>
       <c r="N4">
-        <v>0.239166</v>
+        <v>0.6437390000000001</v>
       </c>
       <c r="O4">
-        <v>0.005457360319405015</v>
+        <v>0.0717081364922955</v>
       </c>
       <c r="P4">
-        <v>0.005457360319405016</v>
+        <v>0.0717081364922955</v>
       </c>
       <c r="Q4">
-        <v>0.170747011734</v>
+        <v>9.835429397922001</v>
       </c>
       <c r="R4">
-        <v>1.536723105606</v>
+        <v>88.51886458129802</v>
       </c>
       <c r="S4">
-        <v>0.0001565841892138673</v>
+        <v>0.06015914120932964</v>
       </c>
       <c r="T4">
-        <v>0.0001565841892138673</v>
+        <v>0.06015914120932964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.835794</v>
+        <v>8.799284</v>
       </c>
       <c r="H5">
-        <v>137.507382</v>
+        <v>26.397852</v>
       </c>
       <c r="I5">
-        <v>0.6140378064974858</v>
+        <v>0.1610555767853027</v>
       </c>
       <c r="J5">
-        <v>0.6140378064974858</v>
+        <v>0.1610555767853027</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.82600633333333</v>
+        <v>1.075390666666667</v>
       </c>
       <c r="N5">
-        <v>38.478019</v>
+        <v>3.226172</v>
       </c>
       <c r="O5">
-        <v>0.8780027849272566</v>
+        <v>0.3593735692938006</v>
       </c>
       <c r="P5">
-        <v>0.8780027849272568</v>
+        <v>0.3593735692938007</v>
       </c>
       <c r="Q5">
-        <v>587.890184137362</v>
+        <v>9.462667886949333</v>
       </c>
       <c r="R5">
-        <v>5291.011657236259</v>
+        <v>85.164010982544</v>
       </c>
       <c r="S5">
-        <v>0.5391269041554164</v>
+        <v>0.05787911748400599</v>
       </c>
       <c r="T5">
-        <v>0.5391269041554166</v>
+        <v>0.057879117484006</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.835794</v>
+        <v>8.799284</v>
       </c>
       <c r="H6">
-        <v>137.507382</v>
+        <v>26.397852</v>
       </c>
       <c r="I6">
-        <v>0.6140378064974858</v>
+        <v>0.1610555767853027</v>
       </c>
       <c r="J6">
-        <v>0.6140378064974858</v>
+        <v>0.1610555767853027</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>5.107299</v>
       </c>
       <c r="O6">
-        <v>0.1165398547533383</v>
+        <v>0.5689182942139039</v>
       </c>
       <c r="P6">
-        <v>0.1165398547533383</v>
+        <v>0.5689182942139039</v>
       </c>
       <c r="Q6">
-        <v>78.032368286802</v>
+        <v>14.980191457972</v>
       </c>
       <c r="R6">
-        <v>702.2913145812181</v>
+        <v>134.821723121748</v>
       </c>
       <c r="S6">
-        <v>0.07155987678227547</v>
+        <v>0.09162746401833081</v>
       </c>
       <c r="T6">
-        <v>0.07155987678227547</v>
+        <v>0.09162746401833081</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.835794</v>
+        <v>8.799284</v>
       </c>
       <c r="H7">
-        <v>137.507382</v>
+        <v>26.397852</v>
       </c>
       <c r="I7">
-        <v>0.6140378064974858</v>
+        <v>0.1610555767853027</v>
       </c>
       <c r="J7">
-        <v>0.6140378064974858</v>
+        <v>0.1610555767853027</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.079722</v>
+        <v>0.2145796666666667</v>
       </c>
       <c r="N7">
-        <v>0.239166</v>
+        <v>0.6437390000000001</v>
       </c>
       <c r="O7">
-        <v>0.005457360319405015</v>
+        <v>0.0717081364922955</v>
       </c>
       <c r="P7">
-        <v>0.005457360319405016</v>
+        <v>0.0717081364922955</v>
       </c>
       <c r="Q7">
-        <v>3.654121169268</v>
+        <v>1.888147427625334</v>
       </c>
       <c r="R7">
-        <v>32.887090523412</v>
+        <v>16.993326848628</v>
       </c>
       <c r="S7">
-        <v>0.003351025559793874</v>
+        <v>0.01154899528296586</v>
       </c>
       <c r="T7">
-        <v>0.003351025559793875</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>26.66895966666667</v>
-      </c>
-      <c r="H8">
-        <v>80.006879</v>
-      </c>
-      <c r="I8">
-        <v>0.357269899050727</v>
-      </c>
-      <c r="J8">
-        <v>0.357269899050727</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>12.82600633333333</v>
-      </c>
-      <c r="N8">
-        <v>38.478019</v>
-      </c>
-      <c r="O8">
-        <v>0.8780027849272566</v>
-      </c>
-      <c r="P8">
-        <v>0.8780027849272568</v>
-      </c>
-      <c r="Q8">
-        <v>342.0562455880779</v>
-      </c>
-      <c r="R8">
-        <v>3078.506210292701</v>
-      </c>
-      <c r="S8">
-        <v>0.3136839663372182</v>
-      </c>
-      <c r="T8">
-        <v>0.3136839663372182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>26.66895966666667</v>
-      </c>
-      <c r="H9">
-        <v>80.006879</v>
-      </c>
-      <c r="I9">
-        <v>0.357269899050727</v>
-      </c>
-      <c r="J9">
-        <v>0.357269899050727</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.702433</v>
-      </c>
-      <c r="N9">
-        <v>5.107299</v>
-      </c>
-      <c r="O9">
-        <v>0.1165398547533383</v>
-      </c>
-      <c r="P9">
-        <v>0.1165398547533383</v>
-      </c>
-      <c r="Q9">
-        <v>45.40211701220233</v>
-      </c>
-      <c r="R9">
-        <v>408.619053109821</v>
-      </c>
-      <c r="S9">
-        <v>0.04163618214311158</v>
-      </c>
-      <c r="T9">
-        <v>0.04163618214311159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>26.66895966666667</v>
-      </c>
-      <c r="H10">
-        <v>80.006879</v>
-      </c>
-      <c r="I10">
-        <v>0.357269899050727</v>
-      </c>
-      <c r="J10">
-        <v>0.357269899050727</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.079722</v>
-      </c>
-      <c r="N10">
-        <v>0.239166</v>
-      </c>
-      <c r="O10">
-        <v>0.005457360319405015</v>
-      </c>
-      <c r="P10">
-        <v>0.005457360319405016</v>
-      </c>
-      <c r="Q10">
-        <v>2.126102802546</v>
-      </c>
-      <c r="R10">
-        <v>19.134925222914</v>
-      </c>
-      <c r="S10">
-        <v>0.001949750570397273</v>
-      </c>
-      <c r="T10">
-        <v>0.001949750570397274</v>
+        <v>0.01154899528296586</v>
       </c>
     </row>
   </sheetData>
